--- a/module-3-pivottables-dataviz/copilot-dataviz-demo.xlsx
+++ b/module-3-pivottables-dataviz/copilot-dataviz-demo.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\python-powered-excel-with-ai\module-3-pivottables-dataviz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053692B-916D-40DA-A3B4-CCB9A3E25533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC478BDD-AC15-42B4-B0BB-32BCAA798798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="production_yield" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mpg!$B$1:$J$393</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="316">
   <si>
     <t>mpg</t>
   </si>
@@ -965,13 +966,19 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Production Yield</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,16 +994,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1004,20 +1032,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7C289A06-517F-49D4-A9E2-B4ACDD88E858}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1051,7 +1166,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53FFCF2D-9891-4707-B478-435B0915F73D}" name="mpg" displayName="mpg" ref="A1:J393" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53FFCF2D-9891-4707-B478-435B0915F73D}" name="mpg" displayName="mpg" ref="A1:J393" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:J393" xr:uid="{53FFCF2D-9891-4707-B478-435B0915F73D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B0FC285C-8761-49C1-9CDE-525DA9E622CF}" name="id"/>
@@ -1066,6 +1181,17 @@
     <tableColumn id="10" xr3:uid="{D2129890-8F19-47F9-90C0-265524D570FD}" name="car.name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{63EE578C-5BC4-474D-9D12-DE73C7C6E339}" name="production_yield" displayName="production_yield" ref="A1:B32" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B32" xr:uid="{808E8E52-7211-4A63-8D2D-A681BC725A2D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9F113482-FD5B-4658-AE82-C481754E5FD7}" name="Date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{76537759-78FA-480D-A978-D9B9A567064D}" name="Production Yield" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1388,21 +1514,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.86328125" customWidth="1"/>
-    <col min="4" max="4" width="13.53125" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" customWidth="1"/>
+    <col min="4" max="4" width="13.5234375" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" customWidth="1"/>
+    <col min="7" max="7" width="12.47265625" customWidth="1"/>
+    <col min="8" max="8" width="11.83984375" customWidth="1"/>
+    <col min="10" max="10" width="10.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>313</v>
       </c>
@@ -1434,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1466,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1498,7 +1624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1530,7 +1656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1562,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1594,7 +1720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1626,7 +1752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1658,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1690,7 +1816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1722,7 +1848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1754,7 +1880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1786,7 +1912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1818,7 +1944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1850,7 +1976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1882,7 +2008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1914,7 +2040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1946,7 +2072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1978,7 +2104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2010,7 +2136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2042,7 +2168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2074,7 +2200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2106,7 +2232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2138,7 +2264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2170,7 +2296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2202,7 +2328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2234,7 +2360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2266,7 +2392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2298,7 +2424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2330,7 +2456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2362,7 +2488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2394,7 +2520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2426,7 +2552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2458,7 +2584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2490,7 +2616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2522,7 +2648,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2554,7 +2680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2586,7 +2712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2618,7 +2744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2650,7 +2776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2682,7 +2808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2714,7 +2840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2746,7 +2872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2778,7 +2904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2810,7 +2936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2842,7 +2968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2874,7 +3000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2906,7 +3032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2938,7 +3064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2970,7 +3096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3002,7 +3128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3034,7 +3160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3066,7 +3192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3098,7 +3224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3130,7 +3256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3162,7 +3288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3194,7 +3320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3226,7 +3352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3258,7 +3384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3290,7 +3416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3322,7 +3448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3354,7 +3480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3386,7 +3512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3418,7 +3544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3450,7 +3576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3482,7 +3608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3514,7 +3640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3546,7 +3672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3578,7 +3704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3610,7 +3736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3642,7 +3768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3674,7 +3800,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3706,7 +3832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3738,7 +3864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3770,7 +3896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3802,7 +3928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3834,7 +3960,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3866,7 +3992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3898,7 +4024,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3930,7 +4056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3962,7 +4088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3994,7 +4120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4026,7 +4152,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4058,7 +4184,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4090,7 +4216,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4122,7 +4248,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4154,7 +4280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4186,7 +4312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4218,7 +4344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4250,7 +4376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4282,7 +4408,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4314,7 +4440,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4346,7 +4472,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4378,7 +4504,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4410,7 +4536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4442,7 +4568,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4474,7 +4600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4506,7 +4632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4538,7 +4664,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4570,7 +4696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4602,7 +4728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4634,7 +4760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4666,7 +4792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4698,7 +4824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4730,7 +4856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4762,7 +4888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4794,7 +4920,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4826,7 +4952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4858,7 +4984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4890,7 +5016,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4922,7 +5048,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4954,7 +5080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4986,7 +5112,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5018,7 +5144,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5050,7 +5176,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5082,7 +5208,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5114,7 +5240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5146,7 +5272,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5178,7 +5304,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5210,7 +5336,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5242,7 +5368,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5274,7 +5400,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5306,7 +5432,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5338,7 +5464,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5370,7 +5496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5402,7 +5528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5434,7 +5560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5466,7 +5592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5498,7 +5624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5530,7 +5656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5562,7 +5688,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5594,7 +5720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5626,7 +5752,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5658,7 +5784,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5690,7 +5816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5722,7 +5848,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5754,7 +5880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5786,7 +5912,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5818,7 +5944,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5850,7 +5976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5882,7 +6008,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5914,7 +6040,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5946,7 +6072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5978,7 +6104,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6010,7 +6136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6042,7 +6168,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6074,7 +6200,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6106,7 +6232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6138,7 +6264,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6170,7 +6296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6202,7 +6328,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6234,7 +6360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6266,7 +6392,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6298,7 +6424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6330,7 +6456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6362,7 +6488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6394,7 +6520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6426,7 +6552,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6458,7 +6584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6490,7 +6616,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6522,7 +6648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6554,7 +6680,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6586,7 +6712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6618,7 +6744,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6650,7 +6776,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6682,7 +6808,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6714,7 +6840,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6746,7 +6872,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6778,7 +6904,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6810,7 +6936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6842,7 +6968,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6874,7 +7000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6906,7 +7032,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6938,7 +7064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6970,7 +7096,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7002,7 +7128,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7034,7 +7160,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7066,7 +7192,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7098,7 +7224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7130,7 +7256,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7162,7 +7288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7194,7 +7320,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7226,7 +7352,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7258,7 +7384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7290,7 +7416,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7322,7 +7448,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7354,7 +7480,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7386,7 +7512,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7418,7 +7544,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7450,7 +7576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7482,7 +7608,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7514,7 +7640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7546,7 +7672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7578,7 +7704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7610,7 +7736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7642,7 +7768,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7674,7 +7800,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7706,7 +7832,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7738,7 +7864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7770,7 +7896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7802,7 +7928,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7834,7 +7960,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7866,7 +7992,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7898,7 +8024,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7930,7 +8056,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7962,7 +8088,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7994,7 +8120,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8026,7 +8152,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8058,7 +8184,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8090,7 +8216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8122,7 +8248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8154,7 +8280,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8186,7 +8312,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8218,7 +8344,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8250,7 +8376,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8282,7 +8408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8314,7 +8440,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8346,7 +8472,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8378,7 +8504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8410,7 +8536,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8442,7 +8568,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8474,7 +8600,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8506,7 +8632,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8538,7 +8664,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8570,7 +8696,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8602,7 +8728,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8634,7 +8760,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8666,7 +8792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8698,7 +8824,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8730,7 +8856,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8762,7 +8888,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8794,7 +8920,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8826,7 +8952,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8858,7 +8984,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8890,7 +9016,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8922,7 +9048,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8954,7 +9080,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8986,7 +9112,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9018,7 +9144,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9050,7 +9176,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9082,7 +9208,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9114,7 +9240,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9146,7 +9272,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9178,7 +9304,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9210,7 +9336,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9242,7 +9368,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9274,7 +9400,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9306,7 +9432,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9338,7 +9464,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9370,7 +9496,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9402,7 +9528,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9434,7 +9560,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9466,7 +9592,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9498,7 +9624,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9530,7 +9656,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9562,7 +9688,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9594,7 +9720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9626,7 +9752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9658,7 +9784,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9690,7 +9816,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9722,7 +9848,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>260</v>
       </c>
@@ -9754,7 +9880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9786,7 +9912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>262</v>
       </c>
@@ -9818,7 +9944,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>263</v>
       </c>
@@ -9850,7 +9976,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9882,7 +10008,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9914,7 +10040,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9946,7 +10072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9978,7 +10104,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10010,7 +10136,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10042,7 +10168,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10074,7 +10200,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10106,7 +10232,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10138,7 +10264,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10170,7 +10296,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10202,7 +10328,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10234,7 +10360,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10266,7 +10392,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10298,7 +10424,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10330,7 +10456,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10362,7 +10488,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10394,7 +10520,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10426,7 +10552,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10458,7 +10584,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>283</v>
       </c>
@@ -10490,7 +10616,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>284</v>
       </c>
@@ -10522,7 +10648,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>285</v>
       </c>
@@ -10554,7 +10680,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>286</v>
       </c>
@@ -10586,7 +10712,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>287</v>
       </c>
@@ -10618,7 +10744,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>288</v>
       </c>
@@ -10650,7 +10776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>289</v>
       </c>
@@ -10682,7 +10808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10714,7 +10840,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>291</v>
       </c>
@@ -10746,7 +10872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10778,7 +10904,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10810,7 +10936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10842,7 +10968,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10874,7 +11000,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10906,7 +11032,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10938,7 +11064,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10970,7 +11096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11002,7 +11128,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11034,7 +11160,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11066,7 +11192,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11098,7 +11224,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <v>303</v>
       </c>
@@ -11130,7 +11256,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11162,7 +11288,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
         <v>305</v>
       </c>
@@ -11194,7 +11320,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11226,7 +11352,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
         <v>307</v>
       </c>
@@ -11258,7 +11384,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
         <v>308</v>
       </c>
@@ -11290,7 +11416,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
         <v>309</v>
       </c>
@@ -11322,7 +11448,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
         <v>310</v>
       </c>
@@ -11354,7 +11480,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
         <v>311</v>
       </c>
@@ -11386,7 +11512,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
         <v>312</v>
       </c>
@@ -11418,7 +11544,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
         <v>313</v>
       </c>
@@ -11450,7 +11576,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
         <v>314</v>
       </c>
@@ -11482,7 +11608,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
         <v>315</v>
       </c>
@@ -11514,7 +11640,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
         <v>316</v>
       </c>
@@ -11546,7 +11672,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
         <v>317</v>
       </c>
@@ -11578,7 +11704,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
         <v>318</v>
       </c>
@@ -11610,7 +11736,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
         <v>319</v>
       </c>
@@ -11642,7 +11768,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
         <v>320</v>
       </c>
@@ -11674,7 +11800,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
         <v>321</v>
       </c>
@@ -11706,7 +11832,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
         <v>322</v>
       </c>
@@ -11738,7 +11864,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
         <v>323</v>
       </c>
@@ -11770,7 +11896,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
         <v>324</v>
       </c>
@@ -11802,7 +11928,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
         <v>325</v>
       </c>
@@ -11834,7 +11960,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
         <v>326</v>
       </c>
@@ -11866,7 +11992,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
         <v>327</v>
       </c>
@@ -11898,7 +12024,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
         <v>328</v>
       </c>
@@ -11930,7 +12056,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
         <v>329</v>
       </c>
@@ -11962,7 +12088,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
         <v>330</v>
       </c>
@@ -11994,7 +12120,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
         <v>331</v>
       </c>
@@ -12026,7 +12152,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12058,7 +12184,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
         <v>333</v>
       </c>
@@ -12090,7 +12216,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12122,7 +12248,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
         <v>335</v>
       </c>
@@ -12154,7 +12280,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
         <v>336</v>
       </c>
@@ -12186,7 +12312,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
         <v>337</v>
       </c>
@@ -12218,7 +12344,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
         <v>338</v>
       </c>
@@ -12250,7 +12376,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
         <v>339</v>
       </c>
@@ -12282,7 +12408,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
         <v>340</v>
       </c>
@@ -12314,7 +12440,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
         <v>341</v>
       </c>
@@ -12346,7 +12472,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
         <v>342</v>
       </c>
@@ -12378,7 +12504,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
         <v>343</v>
       </c>
@@ -12410,7 +12536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
         <v>344</v>
       </c>
@@ -12442,7 +12568,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
         <v>345</v>
       </c>
@@ -12474,7 +12600,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
         <v>346</v>
       </c>
@@ -12506,7 +12632,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
         <v>347</v>
       </c>
@@ -12538,7 +12664,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
         <v>348</v>
       </c>
@@ -12570,7 +12696,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
         <v>349</v>
       </c>
@@ -12602,7 +12728,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
         <v>350</v>
       </c>
@@ -12634,7 +12760,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
         <v>351</v>
       </c>
@@ -12666,7 +12792,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
         <v>352</v>
       </c>
@@ -12698,7 +12824,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
         <v>353</v>
       </c>
@@ -12730,7 +12856,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
         <v>354</v>
       </c>
@@ -12762,7 +12888,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
         <v>355</v>
       </c>
@@ -12794,7 +12920,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
         <v>356</v>
       </c>
@@ -12826,7 +12952,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
         <v>357</v>
       </c>
@@ -12858,7 +12984,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
         <v>358</v>
       </c>
@@ -12890,7 +13016,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
         <v>359</v>
       </c>
@@ -12922,7 +13048,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
         <v>360</v>
       </c>
@@ -12954,7 +13080,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
         <v>361</v>
       </c>
@@ -12986,7 +13112,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
         <v>362</v>
       </c>
@@ -13018,7 +13144,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
         <v>363</v>
       </c>
@@ -13050,7 +13176,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
         <v>364</v>
       </c>
@@ -13082,7 +13208,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
         <v>365</v>
       </c>
@@ -13114,7 +13240,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
         <v>366</v>
       </c>
@@ -13146,7 +13272,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
         <v>367</v>
       </c>
@@ -13178,7 +13304,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
         <v>368</v>
       </c>
@@ -13210,7 +13336,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
         <v>369</v>
       </c>
@@ -13242,7 +13368,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
         <v>370</v>
       </c>
@@ -13274,7 +13400,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
         <v>371</v>
       </c>
@@ -13306,7 +13432,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
         <v>372</v>
       </c>
@@ -13338,7 +13464,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
         <v>373</v>
       </c>
@@ -13370,7 +13496,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
         <v>374</v>
       </c>
@@ -13402,7 +13528,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
         <v>375</v>
       </c>
@@ -13434,7 +13560,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
         <v>376</v>
       </c>
@@ -13466,7 +13592,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
         <v>377</v>
       </c>
@@ -13498,7 +13624,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
         <v>378</v>
       </c>
@@ -13530,7 +13656,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
         <v>379</v>
       </c>
@@ -13562,7 +13688,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
         <v>380</v>
       </c>
@@ -13594,7 +13720,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
         <v>381</v>
       </c>
@@ -13626,7 +13752,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
         <v>382</v>
       </c>
@@ -13658,7 +13784,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
         <v>383</v>
       </c>
@@ -13690,7 +13816,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
         <v>384</v>
       </c>
@@ -13722,7 +13848,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
         <v>385</v>
       </c>
@@ -13754,7 +13880,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
         <v>386</v>
       </c>
@@ -13786,7 +13912,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
         <v>387</v>
       </c>
@@ -13818,7 +13944,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
         <v>388</v>
       </c>
@@ -13850,7 +13976,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
         <v>389</v>
       </c>
@@ -13882,7 +14008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
         <v>390</v>
       </c>
@@ -13914,7 +14040,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
         <v>391</v>
       </c>
@@ -13946,7 +14072,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
         <v>392</v>
       </c>
@@ -13976,6 +14102,284 @@
       </c>
       <c r="J393" t="s">
         <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9001938D-AE78-4740-BEB9-058F0FB1272A}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="11.20703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83984375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="54.9" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A2" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3" s="5">
+        <v>44928</v>
+      </c>
+      <c r="B3" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A4" s="4">
+        <v>44929</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5" s="5">
+        <v>44930</v>
+      </c>
+      <c r="B5" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6" s="4">
+        <v>44931</v>
+      </c>
+      <c r="B6" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7" s="5">
+        <v>44932</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8" s="4">
+        <v>44933</v>
+      </c>
+      <c r="B8" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A9" s="5">
+        <v>44934</v>
+      </c>
+      <c r="B9" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A10" s="4">
+        <v>44935</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A11" s="5">
+        <v>44936</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A12" s="4">
+        <v>44937</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A13" s="5">
+        <v>44938</v>
+      </c>
+      <c r="B13" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A14" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B14" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A15" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B15" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A16" s="4">
+        <v>44941</v>
+      </c>
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A17" s="5">
+        <v>44942</v>
+      </c>
+      <c r="B17" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A18" s="4">
+        <v>44943</v>
+      </c>
+      <c r="B18" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A19" s="5">
+        <v>44944</v>
+      </c>
+      <c r="B19" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A20" s="4">
+        <v>44945</v>
+      </c>
+      <c r="B20" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A21" s="5">
+        <v>44946</v>
+      </c>
+      <c r="B21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A22" s="4">
+        <v>44947</v>
+      </c>
+      <c r="B22" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A23" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B23" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A24" s="4">
+        <v>44949</v>
+      </c>
+      <c r="B24" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A25" s="5">
+        <v>44950</v>
+      </c>
+      <c r="B25" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A26" s="4">
+        <v>44951</v>
+      </c>
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A27" s="5">
+        <v>44952</v>
+      </c>
+      <c r="B27" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A28" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B28" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A29" s="5">
+        <v>44954</v>
+      </c>
+      <c r="B29" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A30" s="4">
+        <v>44955</v>
+      </c>
+      <c r="B30" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A31" s="5">
+        <v>44956</v>
+      </c>
+      <c r="B31" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A32" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B32" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
